--- a/JS-267-S01.xlsx
+++ b/JS-267-S01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RachTue\Desktop\JavaScript-S01-267\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4DC91F-EF12-41FE-8669-865998C90287}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8939EB5-B808-4574-96ED-A60E7373970B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>Peerapat</t>
+  </si>
+  <si>
+    <t>Nuttaporn</t>
+  </si>
+  <si>
+    <t>Penapha</t>
+  </si>
+  <si>
+    <t>Teetawat</t>
   </si>
 </sst>
 </file>
@@ -436,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -618,11 +627,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -657,6 +675,9 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -684,7 +705,7 @@
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1001,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,130 +1050,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="20" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="15" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1168,24 +1189,24 @@
       <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1267,7 +1288,9 @@
       <c r="G9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1299,7 +1322,9 @@
       <c r="G10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1331,7 +1356,9 @@
       <c r="G11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -1363,7 +1390,9 @@
       <c r="G12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1395,7 +1424,9 @@
       <c r="G13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1427,7 +1458,9 @@
       <c r="G14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1459,7 +1492,9 @@
       <c r="G15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1491,7 +1526,9 @@
       <c r="G16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1523,7 +1560,9 @@
       <c r="G17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1555,7 +1594,9 @@
       <c r="G18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1587,7 +1628,9 @@
       <c r="G19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1619,7 +1662,9 @@
       <c r="G20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1651,7 +1696,9 @@
       <c r="G21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -1683,7 +1730,9 @@
       <c r="G22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -1715,7 +1764,9 @@
       <c r="G23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -1747,7 +1798,9 @@
       <c r="G24" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -1779,7 +1832,9 @@
       <c r="G25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -1811,7 +1866,9 @@
       <c r="G26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -1843,7 +1900,9 @@
       <c r="G27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -1875,7 +1934,9 @@
       <c r="G28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -1907,7 +1968,9 @@
       <c r="G29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -1939,7 +2002,9 @@
       <c r="G30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -1954,58 +2019,100 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="14" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
     </row>
     <row r="32" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H33" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C34" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H34" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="22" t="s">
         <v>67</v>
       </c>
     </row>

--- a/JS-267-S01.xlsx
+++ b/JS-267-S01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RachTue\Desktop\JavaScript-S01-267\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8939EB5-B808-4574-96ED-A60E7373970B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D90C6D-ADF8-4FA8-ACF8-18957E9ED801}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -678,6 +678,9 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -704,9 +707,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,130 +1050,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="21" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="16" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,24 +1189,24 @@
       <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1291,7 +1291,9 @@
       <c r="H9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -1325,7 +1327,9 @@
       <c r="H10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1359,7 +1363,9 @@
       <c r="H11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1393,7 +1399,9 @@
       <c r="H12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1427,7 +1435,9 @@
       <c r="H13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1461,7 +1471,9 @@
       <c r="H14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1495,7 +1507,9 @@
       <c r="H15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1529,7 +1543,9 @@
       <c r="H16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1563,7 +1579,9 @@
       <c r="H17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1597,7 +1615,9 @@
       <c r="H18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1631,7 +1651,9 @@
       <c r="H19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1665,7 +1687,9 @@
       <c r="H20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -1699,7 +1723,9 @@
       <c r="H21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1728,12 +1754,14 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -1767,7 +1795,9 @@
       <c r="H23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1801,7 +1831,9 @@
       <c r="H24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -1835,7 +1867,9 @@
       <c r="H25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="7"/>
+      <c r="I25" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -1869,7 +1903,9 @@
       <c r="H26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -1903,7 +1939,9 @@
       <c r="H27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -1937,7 +1975,9 @@
       <c r="H28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -1971,7 +2011,9 @@
       <c r="H29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="7"/>
+      <c r="I29" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2005,7 +2047,9 @@
       <c r="H30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="I30" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2019,38 +2063,38 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="15" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
         <v>65</v>
       </c>
@@ -2060,8 +2104,11 @@
       <c r="H33" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I33" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C34" s="11" t="s">
         <v>66</v>
       </c>
@@ -2071,8 +2118,11 @@
       <c r="H34" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I34" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>68</v>
       </c>
@@ -2082,8 +2132,11 @@
       <c r="H35" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I35" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -2093,8 +2146,11 @@
       <c r="H36" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>70</v>
       </c>
@@ -2104,15 +2160,21 @@
       <c r="H37" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I37" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>71</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>67</v>
       </c>
     </row>
